--- a/CTG/LC.xlsx
+++ b/CTG/LC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM57"/>
+  <dimension ref="A1:BN57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +759,11 @@
           <t>Q1/2025</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Q2/2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1086,6 +1091,11 @@
           <t>01/01-31/03</t>
         </is>
       </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>01/04-30/06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1413,6 +1423,11 @@
           <t>Hợp nhất</t>
         </is>
       </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Mới nhất</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1738,6 +1753,11 @@
       <c r="BM4" t="inlineStr">
         <is>
           <t>Chưa kiểm toán</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>VST Tính</t>
         </is>
       </c>
     </row>
@@ -1811,6 +1831,7 @@
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1882,6 +1903,7 @@
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1949,6 +1971,7 @@
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2020,6 +2043,7 @@
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2343,6 +2367,11 @@
           <t>30637</t>
         </is>
       </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>34369</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2666,6 +2695,11 @@
           <t>-16368</t>
         </is>
       </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>-15448</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2989,6 +3023,11 @@
           <t>1620</t>
         </is>
       </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>1468</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3312,6 +3351,11 @@
           <t>1195</t>
         </is>
       </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3635,6 +3679,11 @@
           <t>-175</t>
         </is>
       </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>-101</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3954,6 +4003,11 @@
           <t>1821</t>
         </is>
       </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4277,6 +4331,11 @@
           <t>-7233</t>
         </is>
       </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>-4888</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4600,6 +4659,11 @@
           <t>-3339</t>
         </is>
       </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>-1087</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4921,6 +4985,11 @@
       <c r="BM17" t="inlineStr">
         <is>
           <t>8159</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>17718</t>
         </is>
       </c>
     </row>
@@ -5002,6 +5071,7 @@
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5325,6 +5395,11 @@
           <t>-16503</t>
         </is>
       </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>2586</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5642,6 +5717,11 @@
       <c r="BM20" t="inlineStr">
         <is>
           <t>-493</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>-10084</t>
         </is>
       </c>
     </row>
@@ -5939,6 +6019,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="BN21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6260,6 +6341,11 @@
       <c r="BM22" t="inlineStr">
         <is>
           <t>-78505</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>-98892</t>
         </is>
       </c>
     </row>
@@ -6517,6 +6603,11 @@
           <t>-6500</t>
         </is>
       </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>-7796</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6838,6 +6929,11 @@
       <c r="BM24" t="inlineStr">
         <is>
           <t>2662</t>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>-808</t>
         </is>
       </c>
     </row>
@@ -6911,6 +7007,7 @@
       <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
       <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7234,6 +7331,11 @@
           <t>-15709</t>
         </is>
       </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>-47</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7557,6 +7659,11 @@
           <t>32897</t>
         </is>
       </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>-2053</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7880,6 +7987,11 @@
           <t>14911</t>
         </is>
       </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>98730</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8183,6 +8295,11 @@
           <t>51678</t>
         </is>
       </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>24598</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8504,6 +8621,11 @@
       <c r="BM30" t="inlineStr">
         <is>
           <t>-65</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -8689,6 +8811,11 @@
           <t>116</t>
         </is>
       </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9010,6 +9137,11 @@
       <c r="BM32" t="inlineStr">
         <is>
           <t>-1437</t>
+        </is>
+      </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>2988</t>
         </is>
       </c>
     </row>
@@ -9155,6 +9287,7 @@
       <c r="BK33" t="inlineStr"/>
       <c r="BL33" t="inlineStr"/>
       <c r="BM33" t="inlineStr"/>
+      <c r="BN33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9476,6 +9609,11 @@
       <c r="BM34" t="inlineStr">
         <is>
           <t>-8761</t>
+        </is>
+      </c>
+      <c r="BN34" t="inlineStr">
+        <is>
+          <t>27096</t>
         </is>
       </c>
     </row>
@@ -9549,6 +9687,7 @@
       <c r="BK35" t="inlineStr"/>
       <c r="BL35" t="inlineStr"/>
       <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9872,6 +10011,11 @@
           <t>-225</t>
         </is>
       </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>-482</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10165,6 +10309,11 @@
       <c r="BM37" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="BN37" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -10334,6 +10483,11 @@
         </is>
       </c>
       <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10405,6 +10559,7 @@
       <c r="BK39" t="inlineStr"/>
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10480,6 +10635,7 @@
       <c r="BK40" t="inlineStr"/>
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10551,6 +10707,7 @@
       <c r="BK41" t="inlineStr"/>
       <c r="BL41" t="inlineStr"/>
       <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10698,6 +10855,7 @@
       <c r="BK42" t="inlineStr"/>
       <c r="BL42" t="inlineStr"/>
       <c r="BM42" t="inlineStr"/>
+      <c r="BN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10857,6 +11015,7 @@
       <c r="BK43" t="inlineStr"/>
       <c r="BL43" t="inlineStr"/>
       <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11152,6 +11311,11 @@
         </is>
       </c>
       <c r="BM44" t="inlineStr"/>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11473,6 +11637,11 @@
       <c r="BM45" t="inlineStr">
         <is>
           <t>-223</t>
+        </is>
+      </c>
+      <c r="BN45" t="inlineStr">
+        <is>
+          <t>-438</t>
         </is>
       </c>
     </row>
@@ -11546,6 +11715,7 @@
       <c r="BK46" t="inlineStr"/>
       <c r="BL46" t="inlineStr"/>
       <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11653,6 +11823,7 @@
       <c r="BK47" t="inlineStr"/>
       <c r="BL47" t="inlineStr"/>
       <c r="BM47" t="inlineStr"/>
+      <c r="BN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11724,6 +11895,7 @@
       <c r="BK48" t="inlineStr"/>
       <c r="BL48" t="inlineStr"/>
       <c r="BM48" t="inlineStr"/>
+      <c r="BN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11795,6 +11967,7 @@
       <c r="BK49" t="inlineStr"/>
       <c r="BL49" t="inlineStr"/>
       <c r="BM49" t="inlineStr"/>
+      <c r="BN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11934,6 +12107,7 @@
       <c r="BK50" t="inlineStr"/>
       <c r="BL50" t="inlineStr"/>
       <c r="BM50" t="inlineStr"/>
+      <c r="BN50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12009,6 +12183,7 @@
       <c r="BK51" t="inlineStr"/>
       <c r="BL51" t="inlineStr"/>
       <c r="BM51" t="inlineStr"/>
+      <c r="BN51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12092,6 +12267,7 @@
       <c r="BK52" t="inlineStr"/>
       <c r="BL52" t="inlineStr"/>
       <c r="BM52" t="inlineStr"/>
+      <c r="BN52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12259,6 +12435,7 @@
       <c r="BK53" t="inlineStr"/>
       <c r="BL53" t="inlineStr"/>
       <c r="BM53" t="inlineStr"/>
+      <c r="BN53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12580,6 +12757,11 @@
       <c r="BM54" t="inlineStr">
         <is>
           <t>-8984</t>
+        </is>
+      </c>
+      <c r="BN54" t="inlineStr">
+        <is>
+          <t>26658</t>
         </is>
       </c>
     </row>
@@ -12749,6 +12931,7 @@
           <t>373320</t>
         </is>
       </c>
+      <c r="BN55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13040,6 +13223,11 @@
           <t>-20</t>
         </is>
       </c>
+      <c r="BN56" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13349,6 +13537,11 @@
       <c r="BM57" t="inlineStr">
         <is>
           <t>364315</t>
+        </is>
+      </c>
+      <c r="BN57" t="inlineStr">
+        <is>
+          <t>26859</t>
         </is>
       </c>
     </row>
